--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>881.00067</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3613.72242</v>
-      </c>
-      <c r="D2" t="n">
-        <v>192.89836</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.39288</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59.44924</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2851.07216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>672.6752300000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>836.99816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>228.44959</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40101.64419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>212.63332</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22.63091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>35.56106</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1145.44117</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1130.46905</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>182.30659</v>
-      </c>
-      <c r="R2" t="n">
-        <v>132.98561</v>
-      </c>
-      <c r="S2" t="n">
-        <v>97.99253</v>
-      </c>
-      <c r="T2" t="n">
-        <v>119.72577</v>
-      </c>
-      <c r="U2" t="n">
-        <v>272.14095</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1426.44667</v>
-      </c>
-      <c r="W2" t="n">
-        <v>122.49901</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1040.31761</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3927.84809</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2800.78386</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>919.41331</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>52.53794</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4008.58457</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2938.68027</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1627.52951</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>277.71076</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>423.98075</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>304.8218</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1095.61577</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>116.32272</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>409.00388</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1287.21899</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>845.56431</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3505.05508</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>61.70485</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>834.55033</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4271.40251</v>
-      </c>
-      <c r="D3" t="n">
-        <v>181.99166</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.29048</v>
-      </c>
-      <c r="F3" t="n">
-        <v>68.28798999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2938.56711</v>
-      </c>
-      <c r="H3" t="n">
-        <v>427.78831</v>
-      </c>
-      <c r="I3" t="n">
-        <v>868.52182</v>
-      </c>
-      <c r="J3" t="n">
-        <v>259.96472</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41835.58033</v>
-      </c>
-      <c r="L3" t="n">
-        <v>236.40947</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22.08028</v>
-      </c>
-      <c r="N3" t="n">
-        <v>36.98698</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1238.28878</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1141.73491</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>177.57873</v>
-      </c>
-      <c r="R3" t="n">
-        <v>144.1186</v>
-      </c>
-      <c r="S3" t="n">
-        <v>104.96021</v>
-      </c>
-      <c r="T3" t="n">
-        <v>107.06818</v>
-      </c>
-      <c r="U3" t="n">
-        <v>298.75023</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1663.7107</v>
-      </c>
-      <c r="W3" t="n">
-        <v>135.21664</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1276.8758</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4388.38332</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2924.70156</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>909.13785</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>84.87231</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4110.60046</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2544.29381</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1413.15033</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>289.45642</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>445.3969</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>319.22948</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1021.75583</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>127.4566</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>422.42137</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1150.95036</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>838.45624</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4119.03213</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>70.57637</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>953.79939</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5340.40995</v>
-      </c>
-      <c r="D4" t="n">
-        <v>187.82942</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.30914</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58.33641</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3037.53879</v>
-      </c>
-      <c r="H4" t="n">
-        <v>402.17707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>922.01784</v>
-      </c>
-      <c r="J4" t="n">
-        <v>264.24913</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44720.23006</v>
-      </c>
-      <c r="L4" t="n">
-        <v>211.81234</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.83021</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35.44846</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1473.56207</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1154.51821</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>190.05204</v>
-      </c>
-      <c r="R4" t="n">
-        <v>115.33154</v>
-      </c>
-      <c r="S4" t="n">
-        <v>102.16943</v>
-      </c>
-      <c r="T4" t="n">
-        <v>103.33567</v>
-      </c>
-      <c r="U4" t="n">
-        <v>313.85619</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2014.84822</v>
-      </c>
-      <c r="W4" t="n">
-        <v>159.49031</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1596.86824</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4914.22437</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2850.76134</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>915.48482</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>47.56951</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4159.77434</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2512.91933</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1337.28304</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>309.65352</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>474.84495</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>309.51541</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1040.45963</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>141.60262</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>442.78193</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1074.93179</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>847.35639</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4354.3424</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>79.91216</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
